--- a/docs/CareConnect-FamilyMemberHistory-1.xlsx
+++ b/docs/CareConnect-FamilyMemberHistory-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3189" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3189" uniqueCount="429">
   <si>
     <t>Path</t>
   </si>
@@ -813,6 +813,12 @@
   <si>
     <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid}
 </t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display</t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display.</t>
   </si>
   <si>
     <t>FamilyMemberHistory.relationship.coding.system</t>
@@ -5346,10 +5352,10 @@
         <v>254</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>95</v>
+        <v>255</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>96</v>
+        <v>256</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5418,7 +5424,7 @@
         <v>39</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>39</v>
@@ -5426,7 +5432,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5452,23 +5458,23 @@
         <v>62</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>39</v>
@@ -5510,7 +5516,7 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -5525,10 +5531,10 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>39</v>
@@ -5536,7 +5542,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5562,13 +5568,13 @@
         <v>121</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5618,7 +5624,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5633,10 +5639,10 @@
         <v>39</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>39</v>
@@ -5644,7 +5650,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5670,14 +5676,14 @@
         <v>68</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>39</v>
@@ -5726,7 +5732,7 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5741,10 +5747,10 @@
         <v>39</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>39</v>
@@ -5752,7 +5758,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5778,14 +5784,14 @@
         <v>121</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>39</v>
@@ -5834,7 +5840,7 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -5849,10 +5855,10 @@
         <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>39</v>
@@ -5860,7 +5866,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5886,16 +5892,16 @@
         <v>195</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>39</v>
@@ -5944,7 +5950,7 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5959,10 +5965,10 @@
         <v>39</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>39</v>
@@ -5970,7 +5976,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5996,16 +6002,16 @@
         <v>121</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>39</v>
@@ -6054,7 +6060,7 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
@@ -6069,10 +6075,10 @@
         <v>39</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>39</v>
@@ -6080,7 +6086,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6106,14 +6112,14 @@
         <v>68</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>39</v>
@@ -6142,7 +6148,7 @@
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>39</v>
@@ -6160,7 +6166,7 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
@@ -6186,7 +6192,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6209,17 +6215,17 @@
         <v>39</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>39</v>
@@ -6268,7 +6274,7 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -6277,7 +6283,7 @@
         <v>49</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>39</v>
@@ -6286,7 +6292,7 @@
         <v>39</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>39</v>
@@ -6294,7 +6300,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6317,19 +6323,19 @@
         <v>50</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>39</v>
@@ -6378,17 +6384,17 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH45" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AF45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>311</v>
-      </c>
       <c r="AI45" t="s" s="2">
         <v>39</v>
       </c>
@@ -6396,7 +6402,7 @@
         <v>39</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>39</v>
@@ -6404,7 +6410,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6430,68 +6436,68 @@
         <v>195</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P46" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="Q46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE46" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P46" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="Q46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>320</v>
-      </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
       </c>
@@ -6499,7 +6505,7 @@
         <v>49</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>39</v>
@@ -6516,7 +6522,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6539,13 +6545,13 @@
         <v>50</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6596,7 +6602,7 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -6614,7 +6620,7 @@
         <v>39</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>39</v>
@@ -6622,7 +6628,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6648,13 +6654,13 @@
         <v>142</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6683,10 +6689,10 @@
         <v>207</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>39</v>
@@ -6704,7 +6710,7 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6725,12 +6731,12 @@
         <v>211</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6753,13 +6759,13 @@
         <v>50</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6810,7 +6816,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6828,15 +6834,15 @@
         <v>39</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6859,13 +6865,13 @@
         <v>39</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6916,7 +6922,7 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -6934,7 +6940,7 @@
         <v>39</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>39</v>
@@ -6942,7 +6948,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7048,7 +7054,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7156,7 +7162,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7179,13 +7185,13 @@
         <v>50</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7236,7 +7242,7 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -7254,7 +7260,7 @@
         <v>92</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>39</v>
@@ -7262,7 +7268,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7288,10 +7294,10 @@
         <v>220</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7342,7 +7348,7 @@
         <v>39</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
@@ -7360,7 +7366,7 @@
         <v>92</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>39</v>
@@ -7368,7 +7374,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7394,10 +7400,10 @@
         <v>121</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7448,7 +7454,7 @@
         <v>39</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>49</v>
@@ -7466,7 +7472,7 @@
         <v>92</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>39</v>
@@ -7474,7 +7480,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7497,16 +7503,16 @@
         <v>39</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7556,7 +7562,7 @@
         <v>39</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -7568,13 +7574,13 @@
         <v>39</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>39</v>
@@ -7582,7 +7588,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7688,7 +7694,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7796,11 +7802,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7825,7 +7831,7 @@
         <v>110</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>112</v>
@@ -7878,7 +7884,7 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -7904,7 +7910,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7930,10 +7936,10 @@
         <v>142</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7963,10 +7969,10 @@
         <v>207</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>39</v>
@@ -7984,7 +7990,7 @@
         <v>39</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>49</v>
@@ -8002,7 +8008,7 @@
         <v>39</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>39</v>
@@ -8010,7 +8016,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8116,7 +8122,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8224,7 +8230,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8332,7 +8338,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>250</v>
@@ -8444,7 +8450,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8550,7 +8556,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8656,7 +8662,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>253</v>
@@ -8684,10 +8690,10 @@
         <v>254</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>95</v>
+        <v>255</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>96</v>
+        <v>256</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8756,7 +8762,7 @@
         <v>39</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>39</v>
@@ -8764,7 +8770,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8790,23 +8796,23 @@
         <v>62</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>39</v>
@@ -8848,7 +8854,7 @@
         <v>39</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
@@ -8863,10 +8869,10 @@
         <v>39</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>39</v>
@@ -8874,7 +8880,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8900,13 +8906,13 @@
         <v>121</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -8956,7 +8962,7 @@
         <v>39</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -8971,10 +8977,10 @@
         <v>39</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>39</v>
@@ -8982,7 +8988,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9008,14 +9014,14 @@
         <v>68</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>39</v>
@@ -9064,7 +9070,7 @@
         <v>39</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
@@ -9079,10 +9085,10 @@
         <v>39</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>39</v>
@@ -9090,7 +9096,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9116,14 +9122,14 @@
         <v>121</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>39</v>
@@ -9172,7 +9178,7 @@
         <v>39</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>40</v>
@@ -9187,10 +9193,10 @@
         <v>39</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>39</v>
@@ -9198,7 +9204,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9224,16 +9230,16 @@
         <v>195</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>39</v>
@@ -9282,7 +9288,7 @@
         <v>39</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>40</v>
@@ -9297,10 +9303,10 @@
         <v>39</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>39</v>
@@ -9308,7 +9314,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9334,16 +9340,16 @@
         <v>121</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>39</v>
@@ -9392,7 +9398,7 @@
         <v>39</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>40</v>
@@ -9407,10 +9413,10 @@
         <v>39</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>39</v>
@@ -9418,7 +9424,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9444,10 +9450,10 @@
         <v>142</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9477,10 +9483,10 @@
         <v>207</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>39</v>
@@ -9498,7 +9504,7 @@
         <v>39</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>40</v>
@@ -9516,7 +9522,7 @@
         <v>39</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>39</v>
@@ -9524,7 +9530,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9630,7 +9636,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9738,7 +9744,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9846,7 +9852,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>250</v>
@@ -9958,7 +9964,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10064,7 +10070,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10170,7 +10176,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>253</v>
@@ -10198,10 +10204,10 @@
         <v>254</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>95</v>
+        <v>255</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>96</v>
+        <v>256</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10270,7 +10276,7 @@
         <v>39</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>39</v>
@@ -10278,7 +10284,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10304,23 +10310,23 @@
         <v>62</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="R82" t="s" s="2">
         <v>39</v>
@@ -10362,7 +10368,7 @@
         <v>39</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>40</v>
@@ -10377,10 +10383,10 @@
         <v>39</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>39</v>
@@ -10388,7 +10394,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10414,13 +10420,13 @@
         <v>121</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -10470,7 +10476,7 @@
         <v>39</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>40</v>
@@ -10485,10 +10491,10 @@
         <v>39</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>39</v>
@@ -10496,7 +10502,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10522,14 +10528,14 @@
         <v>68</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>39</v>
@@ -10578,7 +10584,7 @@
         <v>39</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
@@ -10593,10 +10599,10 @@
         <v>39</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>39</v>
@@ -10604,7 +10610,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10630,14 +10636,14 @@
         <v>121</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>39</v>
@@ -10686,7 +10692,7 @@
         <v>39</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
@@ -10701,10 +10707,10 @@
         <v>39</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>39</v>
@@ -10712,7 +10718,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10738,16 +10744,16 @@
         <v>195</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>39</v>
@@ -10796,7 +10802,7 @@
         <v>39</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>40</v>
@@ -10811,10 +10817,10 @@
         <v>39</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>39</v>
@@ -10822,7 +10828,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10848,16 +10854,16 @@
         <v>121</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>39</v>
@@ -10906,7 +10912,7 @@
         <v>39</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>40</v>
@@ -10921,10 +10927,10 @@
         <v>39</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>39</v>
@@ -10932,7 +10938,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10955,17 +10961,17 @@
         <v>39</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>39</v>
@@ -11014,7 +11020,7 @@
         <v>39</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>40</v>
@@ -11032,7 +11038,7 @@
         <v>39</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>39</v>
@@ -11040,7 +11046,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11063,13 +11069,13 @@
         <v>39</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11120,7 +11126,7 @@
         <v>39</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>40</v>
@@ -11138,7 +11144,7 @@
         <v>39</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>39</v>
@@ -11146,7 +11152,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11252,7 +11258,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11360,7 +11366,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11383,13 +11389,13 @@
         <v>50</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -11440,7 +11446,7 @@
         <v>39</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>40</v>
@@ -11458,7 +11464,7 @@
         <v>92</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>39</v>
@@ -11466,7 +11472,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11492,10 +11498,10 @@
         <v>220</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -11546,7 +11552,7 @@
         <v>39</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>40</v>
@@ -11564,7 +11570,7 @@
         <v>92</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>39</v>
@@ -11572,7 +11578,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11598,10 +11604,10 @@
         <v>121</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11652,7 +11658,7 @@
         <v>39</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>49</v>
@@ -11670,7 +11676,7 @@
         <v>92</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>39</v>

--- a/docs/CareConnect-FamilyMemberHistory-1.xlsx
+++ b/docs/CareConnect-FamilyMemberHistory-1.xlsx
@@ -1504,17 +1504,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.13671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.1328125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="53.3671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="53.36328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1525,19 +1525,19 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="109.203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="109.19921875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="69.40234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="38.58203125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="43.9296875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="179.68359375" customWidth="true" bestFit="true"/>

--- a/docs/CareConnect-FamilyMemberHistory-1.xlsx
+++ b/docs/CareConnect-FamilyMemberHistory-1.xlsx
@@ -1504,17 +1504,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.1328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.13671875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="53.36328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="53.3671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1525,19 +1525,19 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="109.19921875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="109.203125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="69.40234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="38.58203125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="43.9296875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="179.68359375" customWidth="true" bestFit="true"/>

--- a/docs/CareConnect-FamilyMemberHistory-1.xlsx
+++ b/docs/CareConnect-FamilyMemberHistory-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3189" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3189" uniqueCount="431">
   <si>
     <t>Path</t>
   </si>
@@ -337,6 +337,20 @@
 </t>
   </si>
   <si>
+    <t>Who recorded the event</t>
+  </si>
+  <si>
+    <t>Who recorded the event.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>encounter</t>
   </si>
   <si>
@@ -348,14 +362,6 @@
   </si>
   <si>
     <t>This encounter occurs within the scope of the referenced encounter.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>FamilyMemberHistory.modifierExtension</t>
@@ -2546,10 +2552,10 @@
         <v>101</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2609,10 +2615,10 @@
         <v>41</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>39</v>
@@ -2629,7 +2635,7 @@
         <v>93</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>39</v>
@@ -2651,13 +2657,13 @@
         <v>39</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2717,10 +2723,10 @@
         <v>41</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>39</v>
@@ -2734,11 +2740,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2760,13 +2766,13 @@
         <v>94</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2816,7 +2822,7 @@
         <v>39</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>40</v>
@@ -2842,7 +2848,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2865,17 +2871,17 @@
         <v>50</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>39</v>
@@ -2924,7 +2930,7 @@
         <v>39</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>40</v>
@@ -2942,15 +2948,15 @@
         <v>39</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2973,13 +2979,13 @@
         <v>39</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3030,7 +3036,7 @@
         <v>39</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>40</v>
@@ -3048,7 +3054,7 @@
         <v>39</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>39</v>
@@ -3056,11 +3062,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3082,13 +3088,13 @@
         <v>94</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3129,7 +3135,7 @@
         <v>97</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>39</v>
@@ -3138,7 +3144,7 @@
         <v>98</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
@@ -3156,7 +3162,7 @@
         <v>39</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>39</v>
@@ -3164,7 +3170,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3190,16 +3196,16 @@
         <v>68</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>39</v>
@@ -3224,13 +3230,13 @@
         <v>39</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>39</v>
@@ -3248,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
@@ -3266,7 +3272,7 @@
         <v>92</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>39</v>
@@ -3274,7 +3280,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3297,19 +3303,19 @@
         <v>50</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>39</v>
@@ -3337,10 +3343,10 @@
         <v>72</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>39</v>
@@ -3358,7 +3364,7 @@
         <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
@@ -3373,10 +3379,10 @@
         <v>39</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>39</v>
@@ -3384,7 +3390,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3410,14 +3416,14 @@
         <v>62</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>39</v>
@@ -3430,7 +3436,7 @@
         <v>39</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>39</v>
@@ -3466,7 +3472,7 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
@@ -3481,10 +3487,10 @@
         <v>39</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>39</v>
@@ -3492,7 +3498,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3515,16 +3521,16 @@
         <v>50</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3538,7 +3544,7 @@
         <v>39</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>39</v>
@@ -3574,7 +3580,7 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
@@ -3589,10 +3595,10 @@
         <v>39</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>39</v>
@@ -3600,7 +3606,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3623,13 +3629,13 @@
         <v>50</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3680,7 +3686,7 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -3695,10 +3701,10 @@
         <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>39</v>
@@ -3706,7 +3712,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3729,16 +3735,16 @@
         <v>50</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3788,7 +3794,7 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3803,10 +3809,10 @@
         <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>39</v>
@@ -3814,7 +3820,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3837,13 +3843,13 @@
         <v>50</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3894,7 +3900,7 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3912,7 +3918,7 @@
         <v>39</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>39</v>
@@ -3920,7 +3926,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3946,13 +3952,13 @@
         <v>68</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3978,13 +3984,13 @@
         <v>39</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>39</v>
@@ -4002,7 +4008,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>49</v>
@@ -4023,12 +4029,12 @@
         <v>39</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4051,22 +4057,22 @@
         <v>50</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
@@ -4112,7 +4118,7 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -4130,7 +4136,7 @@
         <v>39</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>39</v>
@@ -4138,7 +4144,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4161,19 +4167,19 @@
         <v>50</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>39</v>
@@ -4198,13 +4204,13 @@
         <v>39</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>39</v>
@@ -4222,7 +4228,7 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -4231,7 +4237,7 @@
         <v>49</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>39</v>
@@ -4240,7 +4246,7 @@
         <v>39</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>39</v>
@@ -4248,11 +4254,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4271,13 +4277,13 @@
         <v>50</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4328,7 +4334,7 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>49</v>
@@ -4346,15 +4352,15 @@
         <v>39</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4377,19 +4383,19 @@
         <v>50</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>39</v>
@@ -4438,7 +4444,7 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -4456,15 +4462,15 @@
         <v>39</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4487,17 +4493,17 @@
         <v>50</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>39</v>
@@ -4546,7 +4552,7 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4564,7 +4570,7 @@
         <v>39</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>39</v>
@@ -4572,7 +4578,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4595,13 +4601,13 @@
         <v>50</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4628,13 +4634,13 @@
         <v>39</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>39</v>
@@ -4652,7 +4658,7 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>49</v>
@@ -4670,7 +4676,7 @@
         <v>39</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>39</v>
@@ -4678,7 +4684,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4701,13 +4707,13 @@
         <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4758,7 +4764,7 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4776,7 +4782,7 @@
         <v>39</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>39</v>
@@ -4784,11 +4790,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4810,13 +4816,13 @@
         <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4857,7 +4863,7 @@
         <v>97</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>39</v>
@@ -4866,7 +4872,7 @@
         <v>98</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -4884,7 +4890,7 @@
         <v>39</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>39</v>
@@ -4892,7 +4898,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4915,19 +4921,19 @@
         <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>39</v>
@@ -4964,7 +4970,7 @@
         <v>39</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AB32" s="2"/>
       <c r="AC32" t="s" s="2">
@@ -4974,7 +4980,7 @@
         <v>98</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -4989,10 +4995,10 @@
         <v>39</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>39</v>
@@ -5000,10 +5006,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>39</v>
@@ -5025,19 +5031,19 @@
         <v>50</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>39</v>
@@ -5086,7 +5092,7 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
@@ -5101,10 +5107,10 @@
         <v>39</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>39</v>
@@ -5112,7 +5118,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5135,13 +5141,13 @@
         <v>39</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5192,7 +5198,7 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -5210,7 +5216,7 @@
         <v>39</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>39</v>
@@ -5218,7 +5224,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5289,7 +5295,7 @@
         <v>97</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>39</v>
@@ -5298,7 +5304,7 @@
         <v>98</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -5324,10 +5330,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>39</v>
@@ -5349,13 +5355,13 @@
         <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5406,7 +5412,7 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -5432,7 +5438,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5458,23 +5464,23 @@
         <v>62</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>39</v>
@@ -5516,7 +5522,7 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -5531,10 +5537,10 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>39</v>
@@ -5542,7 +5548,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5565,16 +5571,16 @@
         <v>50</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5624,7 +5630,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5639,10 +5645,10 @@
         <v>39</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>39</v>
@@ -5650,7 +5656,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5676,14 +5682,14 @@
         <v>68</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>39</v>
@@ -5732,7 +5738,7 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5747,10 +5753,10 @@
         <v>39</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>39</v>
@@ -5758,7 +5764,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5781,17 +5787,17 @@
         <v>50</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>39</v>
@@ -5840,7 +5846,7 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -5855,10 +5861,10 @@
         <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>39</v>
@@ -5866,7 +5872,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5889,19 +5895,19 @@
         <v>50</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>39</v>
@@ -5950,7 +5956,7 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5965,10 +5971,10 @@
         <v>39</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>39</v>
@@ -5976,7 +5982,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5999,19 +6005,19 @@
         <v>50</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>39</v>
@@ -6060,7 +6066,7 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
@@ -6075,10 +6081,10 @@
         <v>39</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>39</v>
@@ -6086,7 +6092,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6112,14 +6118,14 @@
         <v>68</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>39</v>
@@ -6144,11 +6150,11 @@
         <v>39</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>39</v>
@@ -6166,7 +6172,7 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
@@ -6192,7 +6198,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6215,17 +6221,17 @@
         <v>39</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>39</v>
@@ -6274,7 +6280,7 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -6283,7 +6289,7 @@
         <v>49</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>39</v>
@@ -6292,7 +6298,7 @@
         <v>39</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>39</v>
@@ -6300,7 +6306,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6323,19 +6329,19 @@
         <v>50</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>39</v>
@@ -6384,17 +6390,17 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH45" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AF45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>313</v>
-      </c>
       <c r="AI45" t="s" s="2">
         <v>39</v>
       </c>
@@ -6402,7 +6408,7 @@
         <v>39</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>39</v>
@@ -6410,7 +6416,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6433,71 +6439,71 @@
         <v>50</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P46" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="Q46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE46" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P46" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="Q46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>322</v>
-      </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
       </c>
@@ -6505,7 +6511,7 @@
         <v>49</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>39</v>
@@ -6522,7 +6528,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6545,13 +6551,13 @@
         <v>50</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6602,7 +6608,7 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -6620,7 +6626,7 @@
         <v>39</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>39</v>
@@ -6628,7 +6634,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6651,16 +6657,16 @@
         <v>50</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6686,13 +6692,13 @@
         <v>39</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>39</v>
@@ -6710,7 +6716,7 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6728,15 +6734,15 @@
         <v>39</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6759,13 +6765,13 @@
         <v>50</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6816,7 +6822,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6834,15 +6840,15 @@
         <v>39</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6865,13 +6871,13 @@
         <v>39</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6922,7 +6928,7 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -6940,7 +6946,7 @@
         <v>39</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>39</v>
@@ -6948,7 +6954,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6971,13 +6977,13 @@
         <v>39</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7028,7 +7034,7 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
@@ -7046,7 +7052,7 @@
         <v>39</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>39</v>
@@ -7054,11 +7060,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7080,13 +7086,13 @@
         <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7127,7 +7133,7 @@
         <v>97</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>39</v>
@@ -7136,7 +7142,7 @@
         <v>98</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -7154,7 +7160,7 @@
         <v>39</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>39</v>
@@ -7162,7 +7168,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7185,13 +7191,13 @@
         <v>50</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7242,7 +7248,7 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -7260,7 +7266,7 @@
         <v>92</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>39</v>
@@ -7268,7 +7274,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7291,13 +7297,13 @@
         <v>50</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7348,7 +7354,7 @@
         <v>39</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
@@ -7366,7 +7372,7 @@
         <v>92</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>39</v>
@@ -7374,7 +7380,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7397,13 +7403,13 @@
         <v>39</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7454,7 +7460,7 @@
         <v>39</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>49</v>
@@ -7472,7 +7478,7 @@
         <v>92</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>39</v>
@@ -7480,7 +7486,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7503,16 +7509,16 @@
         <v>39</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7562,7 +7568,7 @@
         <v>39</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -7574,13 +7580,13 @@
         <v>39</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>39</v>
@@ -7588,7 +7594,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7611,13 +7617,13 @@
         <v>39</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7668,7 +7674,7 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -7686,7 +7692,7 @@
         <v>39</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>39</v>
@@ -7694,11 +7700,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7720,13 +7726,13 @@
         <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -7776,7 +7782,7 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
@@ -7794,7 +7800,7 @@
         <v>39</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>39</v>
@@ -7802,11 +7808,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7828,13 +7834,13 @@
         <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7884,7 +7890,7 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -7910,7 +7916,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7933,13 +7939,13 @@
         <v>39</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7966,13 +7972,13 @@
         <v>39</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>39</v>
@@ -7990,7 +7996,7 @@
         <v>39</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>49</v>
@@ -8008,7 +8014,7 @@
         <v>39</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>39</v>
@@ -8016,7 +8022,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8039,13 +8045,13 @@
         <v>39</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8096,7 +8102,7 @@
         <v>39</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
@@ -8114,7 +8120,7 @@
         <v>39</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>39</v>
@@ -8122,11 +8128,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8148,13 +8154,13 @@
         <v>94</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8195,7 +8201,7 @@
         <v>97</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>39</v>
@@ -8204,7 +8210,7 @@
         <v>98</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -8222,7 +8228,7 @@
         <v>39</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>39</v>
@@ -8230,7 +8236,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8253,19 +8259,19 @@
         <v>50</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>39</v>
@@ -8302,7 +8308,7 @@
         <v>39</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AB63" s="2"/>
       <c r="AC63" t="s" s="2">
@@ -8312,7 +8318,7 @@
         <v>98</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
@@ -8327,10 +8333,10 @@
         <v>39</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>39</v>
@@ -8338,10 +8344,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>39</v>
@@ -8363,19 +8369,19 @@
         <v>50</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>39</v>
@@ -8424,7 +8430,7 @@
         <v>39</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
@@ -8439,10 +8445,10 @@
         <v>39</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>39</v>
@@ -8450,7 +8456,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8473,13 +8479,13 @@
         <v>39</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8530,7 +8536,7 @@
         <v>39</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
@@ -8548,7 +8554,7 @@
         <v>39</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>39</v>
@@ -8556,7 +8562,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8627,7 +8633,7 @@
         <v>97</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>39</v>
@@ -8636,7 +8642,7 @@
         <v>98</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
@@ -8662,10 +8668,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>39</v>
@@ -8687,13 +8693,13 @@
         <v>39</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8744,7 +8750,7 @@
         <v>39</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
@@ -8770,7 +8776,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8796,23 +8802,23 @@
         <v>62</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>39</v>
@@ -8854,7 +8860,7 @@
         <v>39</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
@@ -8869,10 +8875,10 @@
         <v>39</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>39</v>
@@ -8880,7 +8886,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8903,16 +8909,16 @@
         <v>50</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -8962,7 +8968,7 @@
         <v>39</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -8977,10 +8983,10 @@
         <v>39</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>39</v>
@@ -8988,7 +8994,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9014,14 +9020,14 @@
         <v>68</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>39</v>
@@ -9070,7 +9076,7 @@
         <v>39</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
@@ -9085,10 +9091,10 @@
         <v>39</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>39</v>
@@ -9096,7 +9102,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9119,17 +9125,17 @@
         <v>50</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>39</v>
@@ -9178,7 +9184,7 @@
         <v>39</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>40</v>
@@ -9193,10 +9199,10 @@
         <v>39</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>39</v>
@@ -9204,7 +9210,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9227,19 +9233,19 @@
         <v>50</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>39</v>
@@ -9288,7 +9294,7 @@
         <v>39</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>40</v>
@@ -9303,10 +9309,10 @@
         <v>39</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>39</v>
@@ -9314,7 +9320,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9337,19 +9343,19 @@
         <v>50</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>39</v>
@@ -9398,7 +9404,7 @@
         <v>39</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>40</v>
@@ -9413,10 +9419,10 @@
         <v>39</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>39</v>
@@ -9424,7 +9430,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9447,13 +9453,13 @@
         <v>39</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9480,13 +9486,13 @@
         <v>39</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>39</v>
@@ -9504,7 +9510,7 @@
         <v>39</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>40</v>
@@ -9522,7 +9528,7 @@
         <v>39</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>39</v>
@@ -9530,7 +9536,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9553,13 +9559,13 @@
         <v>39</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9610,7 +9616,7 @@
         <v>39</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>40</v>
@@ -9628,7 +9634,7 @@
         <v>39</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>39</v>
@@ -9636,11 +9642,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -9662,13 +9668,13 @@
         <v>94</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -9709,7 +9715,7 @@
         <v>97</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AC76" t="s" s="2">
         <v>39</v>
@@ -9718,7 +9724,7 @@
         <v>98</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>40</v>
@@ -9736,7 +9742,7 @@
         <v>39</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>39</v>
@@ -9744,7 +9750,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9767,19 +9773,19 @@
         <v>50</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>39</v>
@@ -9816,7 +9822,7 @@
         <v>39</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AB77" s="2"/>
       <c r="AC77" t="s" s="2">
@@ -9826,7 +9832,7 @@
         <v>98</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>40</v>
@@ -9841,10 +9847,10 @@
         <v>39</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>39</v>
@@ -9852,10 +9858,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>39</v>
@@ -9877,19 +9883,19 @@
         <v>50</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>39</v>
@@ -9938,7 +9944,7 @@
         <v>39</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>40</v>
@@ -9953,10 +9959,10 @@
         <v>39</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>39</v>
@@ -9964,7 +9970,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9987,13 +9993,13 @@
         <v>39</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10044,7 +10050,7 @@
         <v>39</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>40</v>
@@ -10062,7 +10068,7 @@
         <v>39</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>39</v>
@@ -10070,7 +10076,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10141,7 +10147,7 @@
         <v>97</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AC80" t="s" s="2">
         <v>39</v>
@@ -10150,7 +10156,7 @@
         <v>98</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>40</v>
@@ -10176,10 +10182,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>39</v>
@@ -10201,13 +10207,13 @@
         <v>39</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10258,7 +10264,7 @@
         <v>39</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>40</v>
@@ -10284,7 +10290,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10310,23 +10316,23 @@
         <v>62</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="R82" t="s" s="2">
         <v>39</v>
@@ -10368,7 +10374,7 @@
         <v>39</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>40</v>
@@ -10383,10 +10389,10 @@
         <v>39</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>39</v>
@@ -10394,7 +10400,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10417,16 +10423,16 @@
         <v>50</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -10476,7 +10482,7 @@
         <v>39</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>40</v>
@@ -10491,10 +10497,10 @@
         <v>39</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>39</v>
@@ -10502,7 +10508,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10528,14 +10534,14 @@
         <v>68</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>39</v>
@@ -10584,7 +10590,7 @@
         <v>39</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
@@ -10599,10 +10605,10 @@
         <v>39</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>39</v>
@@ -10610,7 +10616,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10633,17 +10639,17 @@
         <v>50</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>39</v>
@@ -10692,7 +10698,7 @@
         <v>39</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
@@ -10707,10 +10713,10 @@
         <v>39</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>39</v>
@@ -10718,7 +10724,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10741,19 +10747,19 @@
         <v>50</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>39</v>
@@ -10802,7 +10808,7 @@
         <v>39</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>40</v>
@@ -10817,10 +10823,10 @@
         <v>39</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>39</v>
@@ -10828,7 +10834,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10851,19 +10857,19 @@
         <v>50</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>39</v>
@@ -10912,7 +10918,7 @@
         <v>39</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>40</v>
@@ -10927,10 +10933,10 @@
         <v>39</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>39</v>
@@ -10938,7 +10944,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10961,17 +10967,17 @@
         <v>39</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>39</v>
@@ -11020,7 +11026,7 @@
         <v>39</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>40</v>
@@ -11038,7 +11044,7 @@
         <v>39</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>39</v>
@@ -11046,7 +11052,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11069,13 +11075,13 @@
         <v>39</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11126,7 +11132,7 @@
         <v>39</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>40</v>
@@ -11144,7 +11150,7 @@
         <v>39</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>39</v>
@@ -11152,7 +11158,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11175,13 +11181,13 @@
         <v>39</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11232,7 +11238,7 @@
         <v>39</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>40</v>
@@ -11250,7 +11256,7 @@
         <v>39</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>39</v>
@@ -11258,11 +11264,11 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11284,13 +11290,13 @@
         <v>94</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -11331,7 +11337,7 @@
         <v>97</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AC91" t="s" s="2">
         <v>39</v>
@@ -11340,7 +11346,7 @@
         <v>98</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>40</v>
@@ -11358,7 +11364,7 @@
         <v>39</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>39</v>
@@ -11366,7 +11372,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11389,13 +11395,13 @@
         <v>50</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -11446,7 +11452,7 @@
         <v>39</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>40</v>
@@ -11464,7 +11470,7 @@
         <v>92</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>39</v>
@@ -11472,7 +11478,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11495,13 +11501,13 @@
         <v>50</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -11552,7 +11558,7 @@
         <v>39</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>40</v>
@@ -11570,7 +11576,7 @@
         <v>92</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>39</v>
@@ -11578,7 +11584,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11601,13 +11607,13 @@
         <v>39</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11658,7 +11664,7 @@
         <v>39</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>49</v>
@@ -11676,7 +11682,7 @@
         <v>92</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>39</v>

--- a/docs/CareConnect-FamilyMemberHistory-1.xlsx
+++ b/docs/CareConnect-FamilyMemberHistory-1.xlsx
@@ -1510,17 +1510,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.1328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.13671875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="53.36328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="53.3671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1531,19 +1531,19 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="109.19921875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="109.203125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="69.40234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="38.58203125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="43.9296875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="179.68359375" customWidth="true" bestFit="true"/>

--- a/docs/CareConnect-FamilyMemberHistory-1.xlsx
+++ b/docs/CareConnect-FamilyMemberHistory-1.xlsx
@@ -1510,17 +1510,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.13671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.1328125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="53.3671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="53.36328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1531,19 +1531,19 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="109.203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="109.19921875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="69.40234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="38.58203125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="43.9296875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="179.68359375" customWidth="true" bestFit="true"/>
